--- a/Artefatos/Cenario_de_Teste/Cenario_de_Teste.xlsx
+++ b/Artefatos/Cenario_de_Teste/Cenario_de_Teste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\APEDC\Artefatos\Cenario_de_Teste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\AlfabetizeAi\Artefatos\Cenario_de_Teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FACDB4F-DB53-4827-AE42-792C31789B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE4A7B8-9C68-4024-A51F-D062FB79E625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cenario_de_Teste" sheetId="1" r:id="rId1"/>
@@ -758,271 +758,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="B2:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="2" width="78.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="78.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="2:3" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C11" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="2:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="2:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C20" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="2:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="27" spans="2:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C29" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="35" spans="2:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="36" spans="2:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>24</v>
       </c>
     </row>
